--- a/2020_Weekend1_Problems/events.xlsx
+++ b/2020_Weekend1_Problems/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZN\HIT\个人文件\2020年美国大学生数学建模竞赛\2020MCM-ICM\2020_Weekend1_Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04206E-6BB6-4551-B0A5-A0EE898CB3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E62B806-3A1C-4B95-A3A5-8024F844A82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Goal kick</t>
   </si>
   <si>
-    <t>中圈开球</t>
-  </si>
-  <si>
     <t>Penalty</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>传中</t>
   </si>
   <si>
-    <t>Hand pass</t>
-  </si>
-  <si>
     <t>手传球</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>高空传球</t>
   </si>
   <si>
-    <t>Launch</t>
-  </si>
-  <si>
     <t>大脚</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
   </si>
   <si>
     <t>Reflexes</t>
-  </si>
-  <si>
-    <t>反身</t>
   </si>
   <si>
     <t>扑救尝试</t>
@@ -259,6 +247,22 @@
   </si>
   <si>
     <t>地面散球决斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下意识扑救</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +613,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,7 +686,7 @@
         <v>3110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +868,7 @@
         <v>606</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,13 +876,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,251 +890,251 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>1791</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>141</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>443</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
         <v>1218</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>3409</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>1206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1">
         <v>260</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1">
         <v>2298</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1">
         <v>2585</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1">
         <v>1181</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1">
         <v>23275</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
         <v>510</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>198</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>116</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1">
         <v>820</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1">
         <v>215</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
